--- a/Biskupice/dok/CI-KNX/CI-KNX_2.xlsx
+++ b/Biskupice/dok/CI-KNX/CI-KNX_2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\CI-KNX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4126CA7-0937-492E-9799-DDAB348319BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7627E547-3387-46BB-94DC-3677285B8262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
-    <sheet name="Shades" sheetId="2" r:id="rId2"/>
+    <sheet name="Arkusz1" sheetId="3" r:id="rId2"/>
+    <sheet name="Shades" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -291,10 +292,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -579,7 +580,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -594,7 +595,7 @@
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -605,7 +606,7 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -616,7 +617,7 @@
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -627,7 +628,7 @@
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -638,7 +639,7 @@
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -649,7 +650,7 @@
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -660,7 +661,7 @@
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -671,7 +672,7 @@
       <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -682,7 +683,7 @@
       <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -693,7 +694,7 @@
       <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -704,7 +705,7 @@
       <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -715,7 +716,7 @@
       <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -726,7 +727,7 @@
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -737,7 +738,7 @@
       <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -748,7 +749,7 @@
       <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -759,7 +760,7 @@
       <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -770,7 +771,7 @@
       <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -781,7 +782,7 @@
       <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -792,7 +793,7 @@
       <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -803,7 +804,7 @@
       <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -814,7 +815,7 @@
       <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -825,7 +826,7 @@
       <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -836,7 +837,7 @@
       <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -847,7 +848,7 @@
       <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -858,7 +859,7 @@
       <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -869,7 +870,7 @@
       <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -880,7 +881,7 @@
       <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -891,7 +892,7 @@
       <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -902,7 +903,7 @@
       <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -913,7 +914,7 @@
       <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -924,7 +925,7 @@
       <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -935,7 +936,7 @@
       <c r="A32" s="1">
         <v>32</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -946,7 +947,7 @@
       <c r="A33" s="1">
         <v>33</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -957,7 +958,7 @@
       <c r="A34" s="1">
         <v>34</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -968,7 +969,7 @@
       <c r="A35" s="1">
         <v>35</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -979,7 +980,7 @@
       <c r="A36" s="1">
         <v>36</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -990,7 +991,7 @@
       <c r="A37" s="1">
         <v>37</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1001,7 +1002,7 @@
       <c r="A38" s="1">
         <v>38</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1012,7 +1013,7 @@
       <c r="A39" s="1">
         <v>39</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1024,7 +1025,7 @@
       <c r="A40" s="1">
         <v>40</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1036,7 +1037,7 @@
       <c r="A41" s="1">
         <v>41</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1047,7 +1048,7 @@
       <c r="A42" s="1">
         <v>42</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1058,7 +1059,7 @@
       <c r="A43" s="1">
         <v>43</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1069,7 +1070,7 @@
       <c r="A44" s="1">
         <v>44</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1083,6 +1084,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20877DB1-8ECD-430C-A9BF-54738BA71099}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="70.140625" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38BD0F8-D775-4633-8D9A-7E6DA0083472}">
   <dimension ref="A1:C46"/>
   <sheetViews>
@@ -1113,10 +1129,10 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1124,19 +1140,19 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="4"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1144,19 +1160,19 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1164,19 +1180,19 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="4"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1184,19 +1200,19 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="4"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="4" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1204,19 +1220,19 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="4" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1224,19 +1240,19 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -1244,19 +1260,19 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="4" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1264,19 +1280,19 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="4" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1284,19 +1300,19 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="4" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1304,19 +1320,19 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="4" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1324,19 +1340,19 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1344,19 +1360,19 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="4"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="4" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1364,19 +1380,19 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="4"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="4" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1384,19 +1400,19 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="4"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1404,19 +1420,19 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1424,19 +1440,19 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="4"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="4" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1444,19 +1460,19 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="4"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -1464,19 +1480,19 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="4"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="4" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1484,19 +1500,19 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="4"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1504,19 +1520,19 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="4"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>67</v>
       </c>
     </row>
@@ -1524,19 +1540,19 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="4"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1544,13 +1560,25 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
     <mergeCell ref="C39:C40"/>
     <mergeCell ref="C41:C42"/>
     <mergeCell ref="C43:C44"/>
@@ -1561,18 +1589,6 @@
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="C37:C38"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Biskupice/dok/CI-KNX/CI-KNX_2.xlsx
+++ b/Biskupice/dok/CI-KNX/CI-KNX_2.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\CI-KNX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7627E547-3387-46BB-94DC-3677285B8262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FE82A9-332F-43E3-8A06-2E519CDBCEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
-    <sheet name="Arkusz1" sheetId="3" r:id="rId2"/>
+    <sheet name="Lighting-All" sheetId="4" r:id="rId2"/>
     <sheet name="Shades" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="123">
   <si>
     <t>Basen_Roleta_1_move</t>
   </si>
@@ -237,6 +237,165 @@
   </si>
   <si>
     <t>Screen_001</t>
+  </si>
+  <si>
+    <t>Basen_wszystko</t>
+  </si>
+  <si>
+    <t>Fitness_wszystko</t>
+  </si>
+  <si>
+    <t>Gabinet_wszystko</t>
+  </si>
+  <si>
+    <t>Garaz_wszystko</t>
+  </si>
+  <si>
+    <t>Korytarz_parter_wszystko</t>
+  </si>
+  <si>
+    <t>Szatnia_wszystko</t>
+  </si>
+  <si>
+    <t>Pralnia_wszystko</t>
+  </si>
+  <si>
+    <t>Pom_gospodarcze_glowne</t>
+  </si>
+  <si>
+    <t>Salon_wszystko</t>
+  </si>
+  <si>
+    <t>WC_glowne</t>
+  </si>
+  <si>
+    <t>Wiatrolap_glowne_sw</t>
+  </si>
+  <si>
+    <t>Kuchnia_wszystko</t>
+  </si>
+  <si>
+    <t>Przedpokoj_wszystko</t>
+  </si>
+  <si>
+    <t>Sala_kinowa_wszystko</t>
+  </si>
+  <si>
+    <t>Schody_do_piwnicy_wszystko</t>
+  </si>
+  <si>
+    <t>Garderoba_glowne</t>
+  </si>
+  <si>
+    <t>Goscinny_wszystko</t>
+  </si>
+  <si>
+    <t>Goscinny_Garderoba_glowne</t>
+  </si>
+  <si>
+    <t>Goscinny_Lazienka_wszystko</t>
+  </si>
+  <si>
+    <t>Korytarz_pietro_wszystko</t>
+  </si>
+  <si>
+    <t>Lazienka_wszystko</t>
+  </si>
+  <si>
+    <t>Salonik_wszystko</t>
+  </si>
+  <si>
+    <t>Sypialnia_wszystko</t>
+  </si>
+  <si>
+    <t>Schody_wszystko</t>
+  </si>
+  <si>
+    <t>Zewnetrzne_Parter_wszystko</t>
+  </si>
+  <si>
+    <t>Zewnetrzne_Pietro_wszystko</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>All_001</t>
+  </si>
+  <si>
+    <t>All_002</t>
+  </si>
+  <si>
+    <t>All_003</t>
+  </si>
+  <si>
+    <t>All_004</t>
+  </si>
+  <si>
+    <t>All_005</t>
+  </si>
+  <si>
+    <t>All_006</t>
+  </si>
+  <si>
+    <t>All_007</t>
+  </si>
+  <si>
+    <t>All_008</t>
+  </si>
+  <si>
+    <t>All_009</t>
+  </si>
+  <si>
+    <t>All_010</t>
+  </si>
+  <si>
+    <t>All_011</t>
+  </si>
+  <si>
+    <t>All_012</t>
+  </si>
+  <si>
+    <t>All_013</t>
+  </si>
+  <si>
+    <t>All_014</t>
+  </si>
+  <si>
+    <t>All_015</t>
+  </si>
+  <si>
+    <t>All_016</t>
+  </si>
+  <si>
+    <t>All_017</t>
+  </si>
+  <si>
+    <t>All_018</t>
+  </si>
+  <si>
+    <t>All_019</t>
+  </si>
+  <si>
+    <t>All_020</t>
+  </si>
+  <si>
+    <t>All_021</t>
+  </si>
+  <si>
+    <t>All_022</t>
+  </si>
+  <si>
+    <t>All_023</t>
+  </si>
+  <si>
+    <t>All_024</t>
+  </si>
+  <si>
+    <t>All_025</t>
+  </si>
+  <si>
+    <t>All_026</t>
   </si>
 </sst>
 </file>
@@ -578,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E44"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1077,6 +1236,292 @@
         <v>44</v>
       </c>
     </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>51</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>52</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>53</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>54</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>55</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>56</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>57</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>58</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>59</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>60</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>61</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>62</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>63</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>64</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>65</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>66</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>67</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>68</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>69</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>70</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>71</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>72</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>73</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>74</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>75</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>76</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1084,16 +1529,402 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20877DB1-8ECD-430C-A9BF-54738BA71099}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8918E76E-06FD-498B-851D-1FC52013C21B}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="70.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>54</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>55</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>56</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>58</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>59</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>60</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>61</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>62</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>63</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>64</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>65</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>66</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>67</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>68</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>69</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>70</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>71</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>72</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>73</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>74</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>75</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>76</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1103,7 +1934,7 @@
   <dimension ref="A1:C46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B46"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1567,6 +2398,16 @@
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
@@ -1579,16 +2420,6 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Biskupice/dok/CI-KNX/CI-KNX_2.xlsx
+++ b/Biskupice/dok/CI-KNX/CI-KNX_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\CI-KNX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8FE82A9-332F-43E3-8A06-2E519CDBCEF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03D3518-C47E-46C8-8223-A514D35CE5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -417,7 +417,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -427,6 +427,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -455,6 +461,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -740,7 +749,7 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H62" sqref="H62"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1533,7 +1542,7 @@
   <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1667,7 +1676,7 @@
       <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="5" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1709,7 +1718,7 @@
       <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="5" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1737,7 +1746,7 @@
       <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="5" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1765,7 +1774,7 @@
       <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="5" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1891,7 +1900,7 @@
       <c r="C26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="5" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1933,8 +1942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38BD0F8-D775-4633-8D9A-7E6DA0083472}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2398,16 +2407,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
@@ -2420,6 +2419,16 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Biskupice/dok/CI-KNX/CI-KNX_2.xlsx
+++ b/Biskupice/dok/CI-KNX/CI-KNX_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\CI-KNX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03D3518-C47E-46C8-8223-A514D35CE5A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A2F32A-7B18-4F09-AD47-F6E3D9EA6340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="125">
   <si>
     <t>Basen_Roleta_1_move</t>
   </si>
@@ -396,6 +396,12 @@
   </si>
   <si>
     <t>All_026</t>
+  </si>
+  <si>
+    <t>patio</t>
+  </si>
+  <si>
+    <t>taras</t>
   </si>
 </sst>
 </file>
@@ -417,7 +423,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,6 +442,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -449,7 +461,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -460,10 +472,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -748,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8918E76E-06FD-498B-851D-1FC52013C21B}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1578,7 +1593,7 @@
       <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1592,7 +1607,7 @@
       <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1606,7 +1621,7 @@
       <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1620,7 +1635,7 @@
       <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="5" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1634,7 +1649,7 @@
       <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="5" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1648,7 +1663,7 @@
       <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="5" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1662,7 +1677,7 @@
       <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="5" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1690,7 +1705,7 @@
       <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="5" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1704,7 +1719,7 @@
       <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="5" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1718,7 +1733,7 @@
       <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1732,7 +1747,7 @@
       <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="5" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1746,7 +1761,7 @@
       <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1760,11 +1775,11 @@
       <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>65</v>
       </c>
@@ -1778,7 +1793,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>66</v>
       </c>
@@ -1788,11 +1803,11 @@
       <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>67</v>
       </c>
@@ -1802,11 +1817,11 @@
       <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>68</v>
       </c>
@@ -1816,11 +1831,11 @@
       <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>69</v>
       </c>
@@ -1830,11 +1845,11 @@
       <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>70</v>
       </c>
@@ -1844,11 +1859,11 @@
       <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>71</v>
       </c>
@@ -1858,11 +1873,11 @@
       <c r="C23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>72</v>
       </c>
@@ -1872,11 +1887,11 @@
       <c r="C24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>73</v>
       </c>
@@ -1886,11 +1901,11 @@
       <c r="C25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="5" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>74</v>
       </c>
@@ -1900,11 +1915,11 @@
       <c r="C26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>75</v>
       </c>
@@ -1914,11 +1929,14 @@
       <c r="C27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>76</v>
       </c>
@@ -1928,8 +1946,11 @@
       <c r="C28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="5" t="s">
         <v>122</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1942,8 +1963,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38BD0F8-D775-4633-8D9A-7E6DA0083472}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43:C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1972,7 +1993,7 @@
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1983,7 +2004,7 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -1992,7 +2013,7 @@
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2003,7 +2024,7 @@
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2012,7 +2033,7 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2023,7 +2044,7 @@
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -2032,7 +2053,7 @@
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2043,7 +2064,7 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -2052,7 +2073,7 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2063,7 +2084,7 @@
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -2072,7 +2093,7 @@
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2083,7 +2104,7 @@
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -2092,7 +2113,7 @@
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2103,7 +2124,7 @@
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -2112,7 +2133,7 @@
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -2123,7 +2144,7 @@
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -2132,7 +2153,7 @@
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2143,7 +2164,7 @@
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -2152,7 +2173,7 @@
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -2163,7 +2184,7 @@
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -2172,7 +2193,7 @@
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2183,7 +2204,7 @@
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -2192,7 +2213,7 @@
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2203,7 +2224,7 @@
       <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -2212,7 +2233,7 @@
       <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2223,7 +2244,7 @@
       <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -2232,7 +2253,7 @@
       <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2243,7 +2264,7 @@
       <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -2252,7 +2273,7 @@
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -2263,7 +2284,7 @@
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -2272,7 +2293,7 @@
       <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2283,7 +2304,7 @@
       <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="4"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -2292,7 +2313,7 @@
       <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -2303,7 +2324,7 @@
       <c r="B36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -2312,7 +2333,7 @@
       <c r="B37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2323,7 +2344,7 @@
       <c r="B38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -2332,7 +2353,7 @@
       <c r="B39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2343,7 +2364,7 @@
       <c r="B40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="4"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -2352,7 +2373,7 @@
       <c r="B41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -2363,7 +2384,7 @@
       <c r="B42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="4"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -2372,7 +2393,7 @@
       <c r="B43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2383,7 +2404,7 @@
       <c r="B44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="4"/>
+      <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -2392,7 +2413,7 @@
       <c r="B45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="4" t="s">
+      <c r="C45" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2403,10 +2424,20 @@
       <c r="B46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="4"/>
+      <c r="C46" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
@@ -2419,16 +2450,6 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Biskupice/dok/CI-KNX/CI-KNX_2.xlsx
+++ b/Biskupice/dok/CI-KNX/CI-KNX_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\CI-KNX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A2F32A-7B18-4F09-AD47-F6E3D9EA6340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488A6B1D-1C66-42F2-9A29-3E104A3FEA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="210">
   <si>
     <t>Basen_Roleta_1_move</t>
   </si>
@@ -402,6 +402,261 @@
   </si>
   <si>
     <t>taras</t>
+  </si>
+  <si>
+    <t>Basen_TempZad</t>
+  </si>
+  <si>
+    <t>Basen_TempAkt</t>
+  </si>
+  <si>
+    <t>Fitness_TempZad</t>
+  </si>
+  <si>
+    <t>Fitness_TempAkt</t>
+  </si>
+  <si>
+    <t>Gabinet_TempZad</t>
+  </si>
+  <si>
+    <t>Gabinet_TempAkt</t>
+  </si>
+  <si>
+    <t>Garaz_TempZad</t>
+  </si>
+  <si>
+    <t>Garaz_TempAkt</t>
+  </si>
+  <si>
+    <t>Garderoba_TempZad</t>
+  </si>
+  <si>
+    <t>Garderoba_TempAkt</t>
+  </si>
+  <si>
+    <t>Goscinny_Garderoba_TempZad</t>
+  </si>
+  <si>
+    <t>Goscinny_Garderoba_TempAkt</t>
+  </si>
+  <si>
+    <t>Goscinny_Lazienka_TempZad</t>
+  </si>
+  <si>
+    <t>Goscinny_Lazienka_TempAkt</t>
+  </si>
+  <si>
+    <t>Goscinny_TempZad</t>
+  </si>
+  <si>
+    <t>Goscinny_TempAkt</t>
+  </si>
+  <si>
+    <t>Goscinny_Sypialnia_TempZad</t>
+  </si>
+  <si>
+    <t>Goscinny_Sypialnia_TempAkt</t>
+  </si>
+  <si>
+    <t>Korytarz_Salonik_TempAkt</t>
+  </si>
+  <si>
+    <t>Lazienka_TempZad</t>
+  </si>
+  <si>
+    <t>Lazienka_TempAkt</t>
+  </si>
+  <si>
+    <t>Korytarz_TempZad</t>
+  </si>
+  <si>
+    <t>Korytarz_TempAkt</t>
+  </si>
+  <si>
+    <t>Korytarz_Schody_TempZad</t>
+  </si>
+  <si>
+    <t>Korytarz_Schody_TempAkt</t>
+  </si>
+  <si>
+    <t>LazSpa_TempAkt</t>
+  </si>
+  <si>
+    <t>Pralnia_TempZad</t>
+  </si>
+  <si>
+    <t>Pralnia_TempAkt</t>
+  </si>
+  <si>
+    <t>Sala_Kinowa_TempZad</t>
+  </si>
+  <si>
+    <t>Sala_Kinowa_TempAkt</t>
+  </si>
+  <si>
+    <t>Salon_Jadalnia_TempAkt</t>
+  </si>
+  <si>
+    <t>Salon_TempZad</t>
+  </si>
+  <si>
+    <t>Salon_TempAkt</t>
+  </si>
+  <si>
+    <t>Salonik_TempZad</t>
+  </si>
+  <si>
+    <t>Salonik_TempAkt</t>
+  </si>
+  <si>
+    <t>Spa_TempZad</t>
+  </si>
+  <si>
+    <t>Spa_TempAkt</t>
+  </si>
+  <si>
+    <t>Sypialnia_TempZad</t>
+  </si>
+  <si>
+    <t>Sypialnia_TempAkt</t>
+  </si>
+  <si>
+    <t>Szatnia_TempAkt</t>
+  </si>
+  <si>
+    <t>Wiatrolap_TempZad</t>
+  </si>
+  <si>
+    <t>Wiatrolap_TempAkt</t>
+  </si>
+  <si>
+    <t>Garderoba_Komfort</t>
+  </si>
+  <si>
+    <t>Garderoba_Noc</t>
+  </si>
+  <si>
+    <t>Garderoba_AntiFreeze</t>
+  </si>
+  <si>
+    <t>Goscinny_Garderoba_Komfort</t>
+  </si>
+  <si>
+    <t>Goscinny_Garderoba_Noc</t>
+  </si>
+  <si>
+    <t>Goscinny_Garderoba_AntiFreeze</t>
+  </si>
+  <si>
+    <t>Pralnia_Komfort</t>
+  </si>
+  <si>
+    <t>Pralnia_Noc</t>
+  </si>
+  <si>
+    <t>Pralnia_AntiFreeze</t>
+  </si>
+  <si>
+    <t>Goscinny_TrybGrzewczy</t>
+  </si>
+  <si>
+    <t>Goscinny_Lazienka_TrybGrzewczy</t>
+  </si>
+  <si>
+    <t>Goscinny_Sypialnia_TrybGrzewczy</t>
+  </si>
+  <si>
+    <t>Korytarz_Schody_TrybGrzewczy</t>
+  </si>
+  <si>
+    <t>Lazienka_TrybGrzewczy</t>
+  </si>
+  <si>
+    <t>Salonik_TrybGrzewczy</t>
+  </si>
+  <si>
+    <t>Sypialnia_TrybGrzewczy</t>
+  </si>
+  <si>
+    <t>Spa_TrybGrzewczy</t>
+  </si>
+  <si>
+    <t>Basen_TrybGrzewczy</t>
+  </si>
+  <si>
+    <t>Fitness_TrybGrzewczy</t>
+  </si>
+  <si>
+    <t>Gabinet_TrybGrzewczy</t>
+  </si>
+  <si>
+    <t>Garaz_TrybGrzewczy</t>
+  </si>
+  <si>
+    <t>Korytarz_TrybGrzewczy</t>
+  </si>
+  <si>
+    <t>Salon_TrybGrzewczy</t>
+  </si>
+  <si>
+    <t>Wiatrolap_TrybGrzewczy</t>
+  </si>
+  <si>
+    <t>Sala_Kinowa_TrybGrzewczy</t>
+  </si>
+  <si>
+    <t>Basen_Scena_in</t>
+  </si>
+  <si>
+    <t>Fitness_Scena_in</t>
+  </si>
+  <si>
+    <t>Gabinet_Scena_in</t>
+  </si>
+  <si>
+    <t>Garaz_Scena_in</t>
+  </si>
+  <si>
+    <t>Goscinny_Lazienka_Scena_in</t>
+  </si>
+  <si>
+    <t>Goscinny_Scena_in</t>
+  </si>
+  <si>
+    <t>Goscinny_Sypialnia_Scena_in</t>
+  </si>
+  <si>
+    <t>Lazienka_Scena_in</t>
+  </si>
+  <si>
+    <t>Korytarz_Scena_in</t>
+  </si>
+  <si>
+    <t>Sala_Kinowa_Scena_in</t>
+  </si>
+  <si>
+    <t>Kuchnia_Scena_in</t>
+  </si>
+  <si>
+    <t>Salon_Scena_in</t>
+  </si>
+  <si>
+    <t>Salonik_Scena_in</t>
+  </si>
+  <si>
+    <t>Spa_Scena_in</t>
+  </si>
+  <si>
+    <t>Sypialnia_Scena_in</t>
+  </si>
+  <si>
+    <t>Wiatrolap_Scena_in</t>
+  </si>
+  <si>
+    <t>1 byte</t>
+  </si>
+  <si>
+    <t>2 bytes</t>
   </si>
 </sst>
 </file>
@@ -761,10 +1016,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1544,6 +1799,950 @@
       </c>
       <c r="C76" s="1" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>81</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>82</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>83</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>84</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>85</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>86</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>87</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>88</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>89</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>90</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>91</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>92</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>93</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>94</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>95</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>96</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>97</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>98</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>99</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>100</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>101</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>102</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>103</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>104</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>105</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>107</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>108</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>109</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>110</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>111</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>112</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>113</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1">
+        <v>114</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>115</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>116</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>117</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>118</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>119</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1">
+        <v>120</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>121</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1">
+        <v>122</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1">
+        <v>123</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1">
+        <v>124</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>125</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1">
+        <v>126</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>127</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>128</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>129</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>130</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C130" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>131</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C131" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>132</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C132" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>133</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C133" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>134</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>135</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1">
+        <v>136</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1">
+        <v>137</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C137" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1">
+        <v>138</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C138" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1">
+        <v>139</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1">
+        <v>140</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C140" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1">
+        <v>141</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1">
+        <v>142</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C142" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1">
+        <v>143</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C143" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1">
+        <v>144</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C144" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1">
+        <v>145</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C145" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1">
+        <v>146</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C146" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1">
+        <v>147</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C147" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1">
+        <v>148</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C148" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1">
+        <v>149</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C149" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>150</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>151</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1">
+        <v>152</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1">
+        <v>153</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>154</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C154" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>155</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C155" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1">
+        <v>156</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C156" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1">
+        <v>157</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1">
+        <v>158</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1">
+        <v>159</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>160</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>161</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>162</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>163</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>164</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +3162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38BD0F8-D775-4633-8D9A-7E6DA0083472}">
   <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C43" sqref="C43:C46"/>
     </sheetView>
   </sheetViews>
@@ -2428,16 +3627,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
@@ -2450,6 +3639,16 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Biskupice/dok/CI-KNX/CI-KNX_2.xlsx
+++ b/Biskupice/dok/CI-KNX/CI-KNX_2.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\CI-KNX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488A6B1D-1C66-42F2-9A29-3E104A3FEA37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2456731F-A5D5-481A-8847-A7803EDD6682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
-    <sheet name="Lighting-All" sheetId="4" r:id="rId2"/>
+    <sheet name="Temperatures" sheetId="5" r:id="rId2"/>
     <sheet name="Shades" sheetId="2" r:id="rId3"/>
+    <sheet name="Lighting-All" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="241">
   <si>
     <t>Basen_Roleta_1_move</t>
   </si>
@@ -657,6 +658,99 @@
   </si>
   <si>
     <t>2 bytes</t>
+  </si>
+  <si>
+    <t>AC_001</t>
+  </si>
+  <si>
+    <t>AC_002</t>
+  </si>
+  <si>
+    <t>AC_003</t>
+  </si>
+  <si>
+    <t>AC_004</t>
+  </si>
+  <si>
+    <t>AC_005</t>
+  </si>
+  <si>
+    <t>AC_017</t>
+  </si>
+  <si>
+    <t>AC_020</t>
+  </si>
+  <si>
+    <t>AC_006</t>
+  </si>
+  <si>
+    <t>AC_007</t>
+  </si>
+  <si>
+    <t>AC_016</t>
+  </si>
+  <si>
+    <t>AC_019</t>
+  </si>
+  <si>
+    <t>AC_010</t>
+  </si>
+  <si>
+    <t>AC_012</t>
+  </si>
+  <si>
+    <t>AC_013</t>
+  </si>
+  <si>
+    <t>AC_011</t>
+  </si>
+  <si>
+    <t>AC_014</t>
+  </si>
+  <si>
+    <t>AC_015</t>
+  </si>
+  <si>
+    <t>AC_021</t>
+  </si>
+  <si>
+    <t>AC_022</t>
+  </si>
+  <si>
+    <t>AC_023</t>
+  </si>
+  <si>
+    <t>Kuchnia_TempAkt</t>
+  </si>
+  <si>
+    <t>KorytarzParter_TempZad</t>
+  </si>
+  <si>
+    <t>KorytarzParter_TempAkt</t>
+  </si>
+  <si>
+    <t>KorytarzPietro_TempZad</t>
+  </si>
+  <si>
+    <t>KorytarzPietro_TempAkt</t>
+  </si>
+  <si>
+    <t>AC_008</t>
+  </si>
+  <si>
+    <t>AC_009</t>
+  </si>
+  <si>
+    <t>AC_024</t>
+  </si>
+  <si>
+    <t>nie będzie na nowej wizce (kor. Pietro)</t>
+  </si>
+  <si>
+    <t>Goscinny_Salon_TempZad</t>
+  </si>
+  <si>
+    <t>Goscinny_Salon_TempAkt</t>
   </si>
 </sst>
 </file>
@@ -716,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -734,6 +828,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1018,8 +1116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+      <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1825,7 +1923,7 @@
       <c r="A81" s="1">
         <v>81</v>
       </c>
-      <c r="B81" s="1" t="s">
+      <c r="B81" s="3" t="s">
         <v>125</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -1836,7 +1934,7 @@
       <c r="A82" s="1">
         <v>82</v>
       </c>
-      <c r="B82" s="1" t="s">
+      <c r="B82" s="3" t="s">
         <v>126</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -1847,7 +1945,7 @@
       <c r="A83" s="1">
         <v>83</v>
       </c>
-      <c r="B83" s="1" t="s">
+      <c r="B83" s="3" t="s">
         <v>127</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -1858,7 +1956,7 @@
       <c r="A84" s="1">
         <v>84</v>
       </c>
-      <c r="B84" s="1" t="s">
+      <c r="B84" s="3" t="s">
         <v>128</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -1869,7 +1967,7 @@
       <c r="A85" s="1">
         <v>85</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="3" t="s">
         <v>129</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -1880,7 +1978,7 @@
       <c r="A86" s="1">
         <v>86</v>
       </c>
-      <c r="B86" s="1" t="s">
+      <c r="B86" s="3" t="s">
         <v>130</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -1891,7 +1989,7 @@
       <c r="A87" s="1">
         <v>87</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="3" t="s">
         <v>131</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -1902,7 +2000,7 @@
       <c r="A88" s="1">
         <v>88</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="3" t="s">
         <v>132</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -1913,7 +2011,7 @@
       <c r="A89" s="1">
         <v>89</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="B89" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -1924,7 +2022,7 @@
       <c r="A90" s="1">
         <v>90</v>
       </c>
-      <c r="B90" s="1" t="s">
+      <c r="B90" s="3" t="s">
         <v>134</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -1935,7 +2033,7 @@
       <c r="A91" s="1">
         <v>91</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="3" t="s">
         <v>135</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -1946,7 +2044,7 @@
       <c r="A92" s="1">
         <v>92</v>
       </c>
-      <c r="B92" s="1" t="s">
+      <c r="B92" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -1957,7 +2055,7 @@
       <c r="A93" s="1">
         <v>93</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="3" t="s">
         <v>137</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -1968,7 +2066,7 @@
       <c r="A94" s="1">
         <v>94</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="3" t="s">
         <v>138</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -1979,7 +2077,7 @@
       <c r="A95" s="1">
         <v>95</v>
       </c>
-      <c r="B95" s="1" t="s">
+      <c r="B95" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -1990,7 +2088,7 @@
       <c r="A96" s="1">
         <v>96</v>
       </c>
-      <c r="B96" s="1" t="s">
+      <c r="B96" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -2001,7 +2099,7 @@
       <c r="A97" s="1">
         <v>97</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -2012,7 +2110,7 @@
       <c r="A98" s="1">
         <v>98</v>
       </c>
-      <c r="B98" s="1" t="s">
+      <c r="B98" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -2023,7 +2121,7 @@
       <c r="A99" s="1">
         <v>99</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="4" t="s">
         <v>143</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -2034,7 +2132,7 @@
       <c r="A100" s="1">
         <v>100</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -2045,7 +2143,7 @@
       <c r="A101" s="1">
         <v>101</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -2056,7 +2154,7 @@
       <c r="A102" s="1">
         <v>102</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -2067,7 +2165,7 @@
       <c r="A103" s="1">
         <v>103</v>
       </c>
-      <c r="B103" s="1" t="s">
+      <c r="B103" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -2078,7 +2176,7 @@
       <c r="A104" s="1">
         <v>104</v>
       </c>
-      <c r="B104" s="1" t="s">
+      <c r="B104" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -2089,7 +2187,7 @@
       <c r="A105" s="1">
         <v>105</v>
       </c>
-      <c r="B105" s="1" t="s">
+      <c r="B105" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -2100,7 +2198,7 @@
       <c r="A106" s="1">
         <v>106</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -2111,7 +2209,7 @@
       <c r="A107" s="1">
         <v>107</v>
       </c>
-      <c r="B107" s="1" t="s">
+      <c r="B107" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -2122,7 +2220,7 @@
       <c r="A108" s="1">
         <v>108</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -2133,7 +2231,7 @@
       <c r="A109" s="1">
         <v>109</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -2144,7 +2242,7 @@
       <c r="A110" s="1">
         <v>110</v>
       </c>
-      <c r="B110" s="1" t="s">
+      <c r="B110" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -2155,7 +2253,7 @@
       <c r="A111" s="1">
         <v>111</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -2166,7 +2264,7 @@
       <c r="A112" s="1">
         <v>112</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -2177,7 +2275,7 @@
       <c r="A113" s="1">
         <v>113</v>
       </c>
-      <c r="B113" s="1" t="s">
+      <c r="B113" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -2188,7 +2286,7 @@
       <c r="A114" s="1">
         <v>114</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -2199,7 +2297,7 @@
       <c r="A115" s="1">
         <v>115</v>
       </c>
-      <c r="B115" s="1" t="s">
+      <c r="B115" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -2210,7 +2308,7 @@
       <c r="A116" s="1">
         <v>116</v>
       </c>
-      <c r="B116" s="1" t="s">
+      <c r="B116" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -2221,7 +2319,7 @@
       <c r="A117" s="1">
         <v>117</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -2232,7 +2330,7 @@
       <c r="A118" s="1">
         <v>118</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -2243,7 +2341,7 @@
       <c r="A119" s="1">
         <v>119</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="3" t="s">
         <v>163</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -2254,7 +2352,7 @@
       <c r="A120" s="1">
         <v>120</v>
       </c>
-      <c r="B120" s="1" t="s">
+      <c r="B120" s="3" t="s">
         <v>164</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -2265,7 +2363,7 @@
       <c r="A121" s="1">
         <v>121</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="3" t="s">
         <v>165</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -2276,7 +2374,7 @@
       <c r="A122" s="1">
         <v>122</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -2752,11 +2850,1116 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D995DE9E-4D63-485D-8DF3-F4DD03E2AD3B}">
+  <dimension ref="A1:E44"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+    <col min="5" max="5" width="38.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>81</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>82</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D4" s="8"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>83</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>84</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>85</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>86</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>87</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>88</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>89</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>90</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D12" s="8"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>91</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>92</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>93</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>94</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>95</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>96</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>97</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>98</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D20" s="8"/>
+    </row>
+    <row r="21" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>99</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>100</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>101</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>102</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>103</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>104</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>105</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>106</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>107</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>108</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D30" s="8"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>109</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>110</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D32" s="8"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>111</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>112</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>113</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>114</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>115</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>116</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>117</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>118</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>119</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>120</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>121</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>122</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D44" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38BD0F8-D775-4633-8D9A-7E6DA0083472}">
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="32" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8918E76E-06FD-498B-851D-1FC52013C21B}">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,501 +4359,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38BD0F8-D775-4633-8D9A-7E6DA0083472}">
-  <dimension ref="A1:C46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43:C46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="32" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Biskupice/dok/CI-KNX/CI-KNX_2.xlsx
+++ b/Biskupice/dok/CI-KNX/CI-KNX_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\CI-KNX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2456731F-A5D5-481A-8847-A7803EDD6682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C608E0BE-FA18-4124-95B3-F85AA8585E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -827,11 +827,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1116,7 +1116,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A122" workbookViewId="0">
+    <sheetView topLeftCell="A122" workbookViewId="0">
       <selection activeCell="G102" sqref="G102"/>
     </sheetView>
   </sheetViews>
@@ -2853,7 +2853,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D995DE9E-4D63-485D-8DF3-F4DD03E2AD3B}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
@@ -2889,7 +2889,7 @@
       <c r="C3" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>210</v>
       </c>
     </row>
@@ -2903,7 +2903,7 @@
       <c r="C4" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D4" s="8"/>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -2915,7 +2915,7 @@
       <c r="C5" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2929,7 +2929,7 @@
       <c r="C6" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D6" s="8"/>
+      <c r="D6" s="7"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -2941,7 +2941,7 @@
       <c r="C7" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>212</v>
       </c>
     </row>
@@ -2955,7 +2955,7 @@
       <c r="C8" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -2967,7 +2967,7 @@
       <c r="C9" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>213</v>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
       <c r="C10" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -2993,7 +2993,7 @@
       <c r="C11" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>215</v>
       </c>
     </row>
@@ -3007,7 +3007,7 @@
       <c r="C12" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -3019,7 +3019,7 @@
       <c r="C13" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="7" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       <c r="C14" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -3045,7 +3045,7 @@
       <c r="C15" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="7" t="s">
         <v>214</v>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       <c r="C16" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D16" s="8"/>
+      <c r="D16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -3071,7 +3071,7 @@
       <c r="C17" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>217</v>
       </c>
     </row>
@@ -3085,7 +3085,7 @@
       <c r="C18" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -3097,7 +3097,7 @@
       <c r="C19" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="7" t="s">
         <v>218</v>
       </c>
     </row>
@@ -3111,9 +3111,9 @@
       <c r="C20" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>99</v>
       </c>
@@ -3140,7 +3140,7 @@
       <c r="C22" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>219</v>
       </c>
     </row>
@@ -3154,7 +3154,7 @@
       <c r="C23" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="7"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -3166,7 +3166,7 @@
       <c r="C24" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3180,7 +3180,7 @@
       <c r="C25" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D25" s="8"/>
+      <c r="D25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -3192,7 +3192,7 @@
       <c r="C26" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>236</v>
       </c>
     </row>
@@ -3206,7 +3206,7 @@
       <c r="C27" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="7"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
@@ -3232,7 +3232,7 @@
       <c r="C29" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="7" t="s">
         <v>220</v>
       </c>
     </row>
@@ -3246,7 +3246,7 @@
       <c r="C30" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D30" s="8"/>
+      <c r="D30" s="7"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -3258,7 +3258,7 @@
       <c r="C31" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3272,7 +3272,7 @@
       <c r="C32" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D32" s="8"/>
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -3298,7 +3298,7 @@
       <c r="C34" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="7" t="s">
         <v>222</v>
       </c>
     </row>
@@ -3312,7 +3312,7 @@
       <c r="C35" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D35" s="8"/>
+      <c r="D35" s="7"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
@@ -3324,7 +3324,7 @@
       <c r="C36" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>224</v>
       </c>
     </row>
@@ -3338,7 +3338,7 @@
       <c r="C37" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D37" s="8"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
@@ -3350,7 +3350,7 @@
       <c r="C38" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>223</v>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
       <c r="C39" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="7"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
@@ -3376,7 +3376,7 @@
       <c r="C40" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3390,7 +3390,7 @@
       <c r="C41" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D41" s="8"/>
+      <c r="D41" s="7"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
@@ -3416,7 +3416,7 @@
       <c r="C43" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="7" t="s">
         <v>226</v>
       </c>
     </row>
@@ -3430,10 +3430,22 @@
       <c r="C44" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D44" s="8"/>
+      <c r="D44" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="D29:D30"/>
     <mergeCell ref="D31:D32"/>
@@ -3441,18 +3453,6 @@
     <mergeCell ref="D36:D37"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="D40:D41"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3491,7 +3491,7 @@
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="8" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3502,7 +3502,7 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="8"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3511,7 +3511,7 @@
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="8" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3522,7 +3522,7 @@
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="8"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -3531,7 +3531,7 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="8" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3542,7 +3542,7 @@
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="8"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -3551,7 +3551,7 @@
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="8" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3562,7 +3562,7 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="8"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -3571,7 +3571,7 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="8" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3582,7 +3582,7 @@
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="8"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -3591,7 +3591,7 @@
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="8" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3602,7 +3602,7 @@
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -3611,7 +3611,7 @@
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3622,7 +3622,7 @@
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="8"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -3631,7 +3631,7 @@
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="8" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3642,7 +3642,7 @@
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="8"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -3651,7 +3651,7 @@
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3662,7 +3662,7 @@
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="8"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -3671,7 +3671,7 @@
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="8" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3682,7 +3682,7 @@
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="6"/>
+      <c r="C22" s="8"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -3691,7 +3691,7 @@
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="8" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3702,7 +3702,7 @@
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="6"/>
+      <c r="C24" s="8"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -3711,7 +3711,7 @@
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="8" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3722,7 +3722,7 @@
       <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="8"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -3731,7 +3731,7 @@
       <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3742,7 +3742,7 @@
       <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="6"/>
+      <c r="C28" s="8"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -3751,7 +3751,7 @@
       <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="8" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3762,7 +3762,7 @@
       <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="6"/>
+      <c r="C30" s="8"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -3771,7 +3771,7 @@
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="8" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3782,7 +3782,7 @@
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="6"/>
+      <c r="C32" s="8"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -3791,7 +3791,7 @@
       <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3802,7 +3802,7 @@
       <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="6"/>
+      <c r="C34" s="8"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -3811,7 +3811,7 @@
       <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C35" s="8" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3822,7 +3822,7 @@
       <c r="B36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="6"/>
+      <c r="C36" s="8"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -3831,7 +3831,7 @@
       <c r="B37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C37" s="8" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3842,7 +3842,7 @@
       <c r="B38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="6"/>
+      <c r="C38" s="8"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -3851,7 +3851,7 @@
       <c r="B39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C39" s="8" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3862,7 +3862,7 @@
       <c r="B40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="6"/>
+      <c r="C40" s="8"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -3871,7 +3871,7 @@
       <c r="B41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="8" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3882,7 +3882,7 @@
       <c r="B42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="6"/>
+      <c r="C42" s="8"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -3891,7 +3891,7 @@
       <c r="B43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C43" s="8" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3902,7 +3902,7 @@
       <c r="B44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="6"/>
+      <c r="C44" s="8"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -3911,7 +3911,7 @@
       <c r="B45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="8" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3922,20 +3922,10 @@
       <c r="B46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="6"/>
+      <c r="C46" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="C5:C6"/>
@@ -3948,6 +3938,16 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Biskupice/dok/CI-KNX/CI-KNX_2.xlsx
+++ b/Biskupice/dok/CI-KNX/CI-KNX_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\CI-KNX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C608E0BE-FA18-4124-95B3-F85AA8585E1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47E0FE7-1812-4BCC-9864-34BB7B3D18FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="247">
   <si>
     <t>Basen_Roleta_1_move</t>
   </si>
@@ -399,12 +399,6 @@
     <t>All_026</t>
   </si>
   <si>
-    <t>patio</t>
-  </si>
-  <si>
-    <t>taras</t>
-  </si>
-  <si>
     <t>Basen_TempZad</t>
   </si>
   <si>
@@ -660,66 +654,6 @@
     <t>2 bytes</t>
   </si>
   <si>
-    <t>AC_001</t>
-  </si>
-  <si>
-    <t>AC_002</t>
-  </si>
-  <si>
-    <t>AC_003</t>
-  </si>
-  <si>
-    <t>AC_004</t>
-  </si>
-  <si>
-    <t>AC_005</t>
-  </si>
-  <si>
-    <t>AC_017</t>
-  </si>
-  <si>
-    <t>AC_020</t>
-  </si>
-  <si>
-    <t>AC_006</t>
-  </si>
-  <si>
-    <t>AC_007</t>
-  </si>
-  <si>
-    <t>AC_016</t>
-  </si>
-  <si>
-    <t>AC_019</t>
-  </si>
-  <si>
-    <t>AC_010</t>
-  </si>
-  <si>
-    <t>AC_012</t>
-  </si>
-  <si>
-    <t>AC_013</t>
-  </si>
-  <si>
-    <t>AC_011</t>
-  </si>
-  <si>
-    <t>AC_014</t>
-  </si>
-  <si>
-    <t>AC_015</t>
-  </si>
-  <si>
-    <t>AC_021</t>
-  </si>
-  <si>
-    <t>AC_022</t>
-  </si>
-  <si>
-    <t>AC_023</t>
-  </si>
-  <si>
     <t>Kuchnia_TempAkt</t>
   </si>
   <si>
@@ -735,12 +669,6 @@
     <t>KorytarzPietro_TempAkt</t>
   </si>
   <si>
-    <t>AC_008</t>
-  </si>
-  <si>
-    <t>AC_009</t>
-  </si>
-  <si>
     <t>AC_024</t>
   </si>
   <si>
@@ -751,6 +679,96 @@
   </si>
   <si>
     <t>Goscinny_Salon_TempAkt</t>
+  </si>
+  <si>
+    <t>Zone_10</t>
+  </si>
+  <si>
+    <t>Zone_09</t>
+  </si>
+  <si>
+    <t>Zone_08</t>
+  </si>
+  <si>
+    <t>Zone_13</t>
+  </si>
+  <si>
+    <t>Zone_20</t>
+  </si>
+  <si>
+    <t>Zone_22</t>
+  </si>
+  <si>
+    <t>Zone_21</t>
+  </si>
+  <si>
+    <t>Zone_24</t>
+  </si>
+  <si>
+    <t>Zone_25</t>
+  </si>
+  <si>
+    <t>Zone_19</t>
+  </si>
+  <si>
+    <t>Zone_14</t>
+  </si>
+  <si>
+    <t>Zone_26</t>
+  </si>
+  <si>
+    <t>Zone_12</t>
+  </si>
+  <si>
+    <t>Zone_07</t>
+  </si>
+  <si>
+    <t>Zone_05</t>
+  </si>
+  <si>
+    <t>Zone_17</t>
+  </si>
+  <si>
+    <t>Zone_01</t>
+  </si>
+  <si>
+    <t>Zone_18</t>
+  </si>
+  <si>
+    <t>Zone_03</t>
+  </si>
+  <si>
+    <t>Zone_02</t>
+  </si>
+  <si>
+    <t>Zone_06</t>
+  </si>
+  <si>
+    <t>Zone_04</t>
+  </si>
+  <si>
+    <t>11B</t>
+  </si>
+  <si>
+    <t>11A</t>
+  </si>
+  <si>
+    <t>14B</t>
+  </si>
+  <si>
+    <t>14A</t>
+  </si>
+  <si>
+    <t>14C</t>
+  </si>
+  <si>
+    <t>23,24,25</t>
+  </si>
+  <si>
+    <t>26A</t>
+  </si>
+  <si>
+    <t>26B</t>
   </si>
 </sst>
 </file>
@@ -810,7 +828,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -828,9 +846,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1924,10 +1939,10 @@
         <v>81</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1935,10 +1950,10 @@
         <v>82</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1946,10 +1961,10 @@
         <v>83</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1957,10 +1972,10 @@
         <v>84</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1968,10 +1983,10 @@
         <v>85</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1979,10 +1994,10 @@
         <v>86</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1990,10 +2005,10 @@
         <v>87</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2001,10 +2016,10 @@
         <v>88</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2012,10 +2027,10 @@
         <v>89</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2023,10 +2038,10 @@
         <v>90</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2034,10 +2049,10 @@
         <v>91</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2045,10 +2060,10 @@
         <v>92</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2056,10 +2071,10 @@
         <v>93</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2067,10 +2082,10 @@
         <v>94</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2078,10 +2093,10 @@
         <v>95</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2089,10 +2104,10 @@
         <v>96</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2100,10 +2115,10 @@
         <v>97</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2111,10 +2126,10 @@
         <v>98</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2122,10 +2137,10 @@
         <v>99</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2133,10 +2148,10 @@
         <v>100</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2144,10 +2159,10 @@
         <v>101</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2155,10 +2170,10 @@
         <v>102</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2166,10 +2181,10 @@
         <v>103</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2177,10 +2192,10 @@
         <v>104</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2188,10 +2203,10 @@
         <v>105</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2199,10 +2214,10 @@
         <v>106</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2210,10 +2225,10 @@
         <v>107</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2221,10 +2236,10 @@
         <v>108</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2232,10 +2247,10 @@
         <v>109</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2243,10 +2258,10 @@
         <v>110</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2254,10 +2269,10 @@
         <v>111</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2265,10 +2280,10 @@
         <v>112</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2276,10 +2291,10 @@
         <v>113</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2287,10 +2302,10 @@
         <v>114</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2298,10 +2313,10 @@
         <v>115</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2309,10 +2324,10 @@
         <v>116</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2320,10 +2335,10 @@
         <v>117</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2331,10 +2346,10 @@
         <v>118</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2342,10 +2357,10 @@
         <v>119</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2353,10 +2368,10 @@
         <v>120</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2364,10 +2379,10 @@
         <v>121</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2375,10 +2390,10 @@
         <v>122</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2386,7 +2401,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>44</v>
@@ -2397,7 +2412,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>44</v>
@@ -2408,7 +2423,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>44</v>
@@ -2419,7 +2434,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>44</v>
@@ -2430,7 +2445,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>44</v>
@@ -2441,7 +2456,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>44</v>
@@ -2452,7 +2467,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>44</v>
@@ -2463,7 +2478,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>44</v>
@@ -2474,7 +2489,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>44</v>
@@ -2485,10 +2500,10 @@
         <v>132</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2496,10 +2511,10 @@
         <v>133</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2507,10 +2522,10 @@
         <v>134</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2518,10 +2533,10 @@
         <v>135</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2529,10 +2544,10 @@
         <v>136</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2540,10 +2555,10 @@
         <v>137</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2551,10 +2566,10 @@
         <v>138</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2562,10 +2577,10 @@
         <v>139</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2573,10 +2588,10 @@
         <v>140</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2584,10 +2599,10 @@
         <v>141</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2595,10 +2610,10 @@
         <v>142</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2606,10 +2621,10 @@
         <v>143</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2617,10 +2632,10 @@
         <v>144</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2628,10 +2643,10 @@
         <v>145</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2639,10 +2654,10 @@
         <v>146</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2650,10 +2665,10 @@
         <v>147</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -2661,10 +2676,10 @@
         <v>148</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
@@ -2672,10 +2687,10 @@
         <v>149</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2683,10 +2698,10 @@
         <v>150</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2694,10 +2709,10 @@
         <v>151</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2705,10 +2720,10 @@
         <v>152</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2716,10 +2731,10 @@
         <v>153</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2727,10 +2742,10 @@
         <v>154</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2738,10 +2753,10 @@
         <v>155</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2749,10 +2764,10 @@
         <v>156</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2760,10 +2775,10 @@
         <v>157</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2771,10 +2786,10 @@
         <v>158</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2782,10 +2797,10 @@
         <v>159</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2793,10 +2808,10 @@
         <v>160</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2804,10 +2819,10 @@
         <v>161</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -2815,10 +2830,10 @@
         <v>162</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -2826,10 +2841,10 @@
         <v>163</v>
       </c>
       <c r="B163" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C163" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -2837,10 +2852,10 @@
         <v>164</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -2853,8 +2868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D995DE9E-4D63-485D-8DF3-F4DD03E2AD3B}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2884,13 +2899,13 @@
         <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2898,10 +2913,10 @@
         <v>82</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D4" s="7"/>
     </row>
@@ -2910,13 +2925,13 @@
         <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2924,10 +2939,10 @@
         <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D6" s="7"/>
     </row>
@@ -2936,13 +2951,13 @@
         <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2950,10 +2965,10 @@
         <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D8" s="7"/>
     </row>
@@ -2962,13 +2977,13 @@
         <v>87</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2976,10 +2991,10 @@
         <v>88</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D10" s="7"/>
     </row>
@@ -2988,13 +3003,13 @@
         <v>89</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3002,10 +3017,10 @@
         <v>90</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D12" s="7"/>
     </row>
@@ -3014,13 +3029,13 @@
         <v>91</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3028,10 +3043,10 @@
         <v>92</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D14" s="7"/>
     </row>
@@ -3040,13 +3055,13 @@
         <v>93</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3054,10 +3069,10 @@
         <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D16" s="7"/>
     </row>
@@ -3066,13 +3081,13 @@
         <v>95</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3080,10 +3095,10 @@
         <v>96</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D18" s="7"/>
     </row>
@@ -3092,13 +3107,13 @@
         <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3106,10 +3121,10 @@
         <v>98</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D20" s="7"/>
     </row>
@@ -3118,16 +3133,16 @@
         <v>99</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3135,13 +3150,13 @@
         <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3149,10 +3164,10 @@
         <v>101</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D23" s="7"/>
     </row>
@@ -3161,13 +3176,13 @@
         <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3175,10 +3190,10 @@
         <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D25" s="7"/>
     </row>
@@ -3187,13 +3202,13 @@
         <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3201,10 +3216,10 @@
         <v>105</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D27" s="7"/>
     </row>
@@ -3213,13 +3228,13 @@
         <v>106</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3227,13 +3242,13 @@
         <v>107</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3241,10 +3256,10 @@
         <v>108</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D30" s="7"/>
     </row>
@@ -3253,13 +3268,13 @@
         <v>109</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3267,10 +3282,10 @@
         <v>110</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D32" s="7"/>
     </row>
@@ -3279,13 +3294,13 @@
         <v>111</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3293,13 +3308,13 @@
         <v>112</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3307,10 +3322,10 @@
         <v>113</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D35" s="7"/>
     </row>
@@ -3319,13 +3334,13 @@
         <v>114</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3333,10 +3348,10 @@
         <v>115</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D37" s="7"/>
     </row>
@@ -3345,13 +3360,13 @@
         <v>116</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3359,10 +3374,10 @@
         <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D39" s="7"/>
     </row>
@@ -3371,13 +3386,13 @@
         <v>118</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3385,10 +3400,10 @@
         <v>119</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D41" s="7"/>
     </row>
@@ -3397,13 +3412,13 @@
         <v>120</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3411,13 +3426,13 @@
         <v>121</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3425,10 +3440,10 @@
         <v>122</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D44" s="7"/>
     </row>
@@ -3491,7 +3506,7 @@
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3502,7 +3517,7 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="8"/>
+      <c r="C4" s="7"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3511,7 +3526,7 @@
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3522,7 +3537,7 @@
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="8"/>
+      <c r="C6" s="7"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -3531,7 +3546,7 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3542,7 +3557,7 @@
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8"/>
+      <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -3551,7 +3566,7 @@
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3562,7 +3577,7 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="8"/>
+      <c r="C10" s="7"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -3571,7 +3586,7 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="7" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3582,7 +3597,7 @@
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="7"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -3591,7 +3606,7 @@
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="7" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3602,7 +3617,7 @@
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="8"/>
+      <c r="C14" s="7"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -3611,7 +3626,7 @@
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3622,7 +3637,7 @@
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="8"/>
+      <c r="C16" s="7"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -3631,7 +3646,7 @@
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3642,7 +3657,7 @@
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="8"/>
+      <c r="C18" s="7"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -3651,7 +3666,7 @@
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3662,7 +3677,7 @@
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="8"/>
+      <c r="C20" s="7"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -3671,7 +3686,7 @@
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="7" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3682,7 +3697,7 @@
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="8"/>
+      <c r="C22" s="7"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -3691,7 +3706,7 @@
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3702,7 +3717,7 @@
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="8"/>
+      <c r="C24" s="7"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -3711,7 +3726,7 @@
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3722,7 +3737,7 @@
       <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="8"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -3731,7 +3746,7 @@
       <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3742,7 +3757,7 @@
       <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="8"/>
+      <c r="C28" s="7"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -3751,7 +3766,7 @@
       <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3762,7 +3777,7 @@
       <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="8"/>
+      <c r="C30" s="7"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -3771,7 +3786,7 @@
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3782,7 +3797,7 @@
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="8"/>
+      <c r="C32" s="7"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -3791,7 +3806,7 @@
       <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3802,7 +3817,7 @@
       <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="8"/>
+      <c r="C34" s="7"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -3811,7 +3826,7 @@
       <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3822,7 +3837,7 @@
       <c r="B36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="8"/>
+      <c r="C36" s="7"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -3831,7 +3846,7 @@
       <c r="B37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="7" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3842,7 +3857,7 @@
       <c r="B38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="8"/>
+      <c r="C38" s="7"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -3851,7 +3866,7 @@
       <c r="B39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3862,7 +3877,7 @@
       <c r="B40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="8"/>
+      <c r="C40" s="7"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -3871,7 +3886,7 @@
       <c r="B41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3882,7 +3897,7 @@
       <c r="B42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="8"/>
+      <c r="C42" s="7"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -3891,7 +3906,7 @@
       <c r="B43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3902,7 +3917,7 @@
       <c r="B44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="8"/>
+      <c r="C44" s="7"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -3911,7 +3926,7 @@
       <c r="B45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3922,7 +3937,7 @@
       <c r="B46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="8"/>
+      <c r="C46" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -3958,8 +3973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8918E76E-06FD-498B-851D-1FC52013C21B}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3971,7 +3986,7 @@
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -3985,7 +4000,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>51</v>
       </c>
@@ -3998,8 +4013,11 @@
       <c r="D3" s="5" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>52</v>
       </c>
@@ -4012,8 +4030,11 @@
       <c r="D4" s="5" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>53</v>
       </c>
@@ -4026,8 +4047,11 @@
       <c r="D5" s="5" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>54</v>
       </c>
@@ -4040,8 +4064,11 @@
       <c r="D6" s="5" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>55</v>
       </c>
@@ -4054,8 +4081,11 @@
       <c r="D7" s="5" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>56</v>
       </c>
@@ -4068,8 +4098,11 @@
       <c r="D8" s="5" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>57</v>
       </c>
@@ -4082,8 +4115,11 @@
       <c r="D9" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>58</v>
       </c>
@@ -4096,8 +4132,11 @@
       <c r="D10" s="5" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>59</v>
       </c>
@@ -4110,8 +4149,11 @@
       <c r="D11" s="5" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>60</v>
       </c>
@@ -4124,8 +4166,11 @@
       <c r="D12" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>61</v>
       </c>
@@ -4138,8 +4183,11 @@
       <c r="D13" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>62</v>
       </c>
@@ -4152,8 +4200,11 @@
       <c r="D14" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>63</v>
       </c>
@@ -4166,8 +4217,11 @@
       <c r="D15" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>64</v>
       </c>
@@ -4179,6 +4233,9 @@
       </c>
       <c r="D16" s="5" t="s">
         <v>110</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -4194,6 +4251,9 @@
       <c r="D17" s="5" t="s">
         <v>111</v>
       </c>
+      <c r="E17" s="1" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
@@ -4208,6 +4268,9 @@
       <c r="D18" s="5" t="s">
         <v>112</v>
       </c>
+      <c r="E18" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -4222,6 +4285,9 @@
       <c r="D19" s="5" t="s">
         <v>113</v>
       </c>
+      <c r="E19" s="1" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
@@ -4236,6 +4302,9 @@
       <c r="D20" s="4" t="s">
         <v>114</v>
       </c>
+      <c r="E20" s="1">
+        <v>22</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -4250,6 +4319,9 @@
       <c r="D21" s="5" t="s">
         <v>115</v>
       </c>
+      <c r="E21" s="1">
+        <v>21</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
@@ -4264,6 +4336,9 @@
       <c r="D22" s="5" t="s">
         <v>116</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -4278,6 +4353,9 @@
       <c r="D23" s="5" t="s">
         <v>117</v>
       </c>
+      <c r="E23" s="1">
+        <v>19</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
@@ -4292,6 +4370,9 @@
       <c r="D24" s="5" t="s">
         <v>118</v>
       </c>
+      <c r="E24" s="1">
+        <v>17</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -4306,6 +4387,9 @@
       <c r="D25" s="5" t="s">
         <v>119</v>
       </c>
+      <c r="E25" s="1">
+        <v>18</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
@@ -4320,6 +4404,9 @@
       <c r="D26" s="4" t="s">
         <v>120</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -4334,8 +4421,8 @@
       <c r="D27" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>123</v>
+      <c r="E27" s="1">
+        <v>15.16</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -4351,8 +4438,8 @@
       <c r="D28" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>124</v>
+      <c r="E28" s="1">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Biskupice/dok/CI-KNX/CI-KNX_2.xlsx
+++ b/Biskupice/dok/CI-KNX/CI-KNX_2.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\CI-KNX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47E0FE7-1812-4BCC-9864-34BB7B3D18FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF646DD-B955-4E89-96B3-A8BBF93F89E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
     <sheet name="Temperatures" sheetId="5" r:id="rId2"/>
     <sheet name="Shades" sheetId="2" r:id="rId3"/>
     <sheet name="Lighting-All" sheetId="4" r:id="rId4"/>
+    <sheet name="Scenes" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="232">
   <si>
     <t>Basen_Roleta_1_move</t>
   </si>
@@ -321,84 +322,6 @@
     <t>Data Type</t>
   </si>
   <si>
-    <t>All_001</t>
-  </si>
-  <si>
-    <t>All_002</t>
-  </si>
-  <si>
-    <t>All_003</t>
-  </si>
-  <si>
-    <t>All_004</t>
-  </si>
-  <si>
-    <t>All_005</t>
-  </si>
-  <si>
-    <t>All_006</t>
-  </si>
-  <si>
-    <t>All_007</t>
-  </si>
-  <si>
-    <t>All_008</t>
-  </si>
-  <si>
-    <t>All_009</t>
-  </si>
-  <si>
-    <t>All_010</t>
-  </si>
-  <si>
-    <t>All_011</t>
-  </si>
-  <si>
-    <t>All_012</t>
-  </si>
-  <si>
-    <t>All_013</t>
-  </si>
-  <si>
-    <t>All_014</t>
-  </si>
-  <si>
-    <t>All_015</t>
-  </si>
-  <si>
-    <t>All_016</t>
-  </si>
-  <si>
-    <t>All_017</t>
-  </si>
-  <si>
-    <t>All_018</t>
-  </si>
-  <si>
-    <t>All_019</t>
-  </si>
-  <si>
-    <t>All_020</t>
-  </si>
-  <si>
-    <t>All_021</t>
-  </si>
-  <si>
-    <t>All_022</t>
-  </si>
-  <si>
-    <t>All_023</t>
-  </si>
-  <si>
-    <t>All_024</t>
-  </si>
-  <si>
-    <t>All_025</t>
-  </si>
-  <si>
-    <t>All_026</t>
-  </si>
-  <si>
     <t>Basen_TempZad</t>
   </si>
   <si>
@@ -747,28 +670,61 @@
     <t>Zone_04</t>
   </si>
   <si>
-    <t>11B</t>
-  </si>
-  <si>
-    <t>11A</t>
-  </si>
-  <si>
-    <t>14B</t>
-  </si>
-  <si>
-    <t>14A</t>
-  </si>
-  <si>
-    <t>14C</t>
-  </si>
-  <si>
-    <t>23,24,25</t>
-  </si>
-  <si>
-    <t>26A</t>
-  </si>
-  <si>
-    <t>26B</t>
+    <t>Zone_9</t>
+  </si>
+  <si>
+    <t>Zone_8</t>
+  </si>
+  <si>
+    <t>Zone_14A</t>
+  </si>
+  <si>
+    <t>Zone_4</t>
+  </si>
+  <si>
+    <t>Zone_11B</t>
+  </si>
+  <si>
+    <t>Zone_5</t>
+  </si>
+  <si>
+    <t>Zone_11A</t>
+  </si>
+  <si>
+    <t>Zone_3</t>
+  </si>
+  <si>
+    <t>Zone_6</t>
+  </si>
+  <si>
+    <t>Zone_14B</t>
+  </si>
+  <si>
+    <t>Zone_7</t>
+  </si>
+  <si>
+    <t>Zone_14C</t>
+  </si>
+  <si>
+    <t>Zone_23,24,25</t>
+  </si>
+  <si>
+    <t>Zone_26A</t>
+  </si>
+  <si>
+    <t>Zone_26B</t>
+  </si>
+  <si>
+    <t>Zone_15,16</t>
+  </si>
+  <si>
+    <t>Zone_27</t>
+  </si>
+  <si>
+    <t>Korytarz_Parter_Scena_in</t>
+  </si>
+  <si>
+    <t>Korytarz_Pietro_Scena_in</t>
   </si>
 </sst>
 </file>
@@ -828,7 +784,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -840,9 +796,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -1131,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView topLeftCell="A122" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="G146" sqref="G146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1939,10 +1892,10 @@
         <v>81</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1950,10 +1903,10 @@
         <v>82</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1961,10 +1914,10 @@
         <v>83</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1972,10 +1925,10 @@
         <v>84</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1983,10 +1936,10 @@
         <v>85</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1994,10 +1947,10 @@
         <v>86</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -2005,10 +1958,10 @@
         <v>87</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -2016,10 +1969,10 @@
         <v>88</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -2027,10 +1980,10 @@
         <v>89</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -2038,10 +1991,10 @@
         <v>90</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -2049,10 +2002,10 @@
         <v>91</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -2060,10 +2013,10 @@
         <v>92</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -2071,10 +2024,10 @@
         <v>93</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -2082,10 +2035,10 @@
         <v>94</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -2093,10 +2046,10 @@
         <v>95</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -2104,10 +2057,10 @@
         <v>96</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -2115,10 +2068,10 @@
         <v>97</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -2126,10 +2079,10 @@
         <v>98</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -2137,10 +2090,10 @@
         <v>99</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -2148,10 +2101,10 @@
         <v>100</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -2159,10 +2112,10 @@
         <v>101</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -2170,10 +2123,10 @@
         <v>102</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -2181,10 +2134,10 @@
         <v>103</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -2192,10 +2145,10 @@
         <v>104</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -2203,10 +2156,10 @@
         <v>105</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -2214,10 +2167,10 @@
         <v>106</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -2225,10 +2178,10 @@
         <v>107</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -2236,10 +2189,10 @@
         <v>108</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -2247,10 +2200,10 @@
         <v>109</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -2258,10 +2211,10 @@
         <v>110</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -2269,10 +2222,10 @@
         <v>111</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -2280,10 +2233,10 @@
         <v>112</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -2291,10 +2244,10 @@
         <v>113</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -2302,10 +2255,10 @@
         <v>114</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -2313,10 +2266,10 @@
         <v>115</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -2324,10 +2277,10 @@
         <v>116</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -2335,10 +2288,10 @@
         <v>117</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -2346,10 +2299,10 @@
         <v>118</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -2357,10 +2310,10 @@
         <v>119</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -2368,10 +2321,10 @@
         <v>120</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -2379,10 +2332,10 @@
         <v>121</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -2390,10 +2343,10 @@
         <v>122</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -2401,7 +2354,7 @@
         <v>123</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>44</v>
@@ -2412,7 +2365,7 @@
         <v>124</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>44</v>
@@ -2423,7 +2376,7 @@
         <v>125</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="C125" s="1" t="s">
         <v>44</v>
@@ -2434,7 +2387,7 @@
         <v>126</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="C126" s="1" t="s">
         <v>44</v>
@@ -2445,7 +2398,7 @@
         <v>127</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="C127" s="1" t="s">
         <v>44</v>
@@ -2456,7 +2409,7 @@
         <v>128</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="C128" s="1" t="s">
         <v>44</v>
@@ -2467,7 +2420,7 @@
         <v>129</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="C129" s="1" t="s">
         <v>44</v>
@@ -2478,7 +2431,7 @@
         <v>130</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="C130" s="1" t="s">
         <v>44</v>
@@ -2489,7 +2442,7 @@
         <v>131</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="C131" s="1" t="s">
         <v>44</v>
@@ -2500,10 +2453,10 @@
         <v>132</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -2511,10 +2464,10 @@
         <v>133</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -2522,10 +2475,10 @@
         <v>134</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -2533,10 +2486,10 @@
         <v>135</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -2544,10 +2497,10 @@
         <v>136</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -2555,10 +2508,10 @@
         <v>137</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -2566,10 +2519,10 @@
         <v>138</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -2577,10 +2530,10 @@
         <v>139</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -2588,10 +2541,10 @@
         <v>140</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -2599,10 +2552,10 @@
         <v>141</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -2610,10 +2563,10 @@
         <v>142</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -2621,10 +2574,10 @@
         <v>143</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -2632,10 +2585,10 @@
         <v>144</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -2643,10 +2596,10 @@
         <v>145</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -2654,10 +2607,10 @@
         <v>146</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -2665,197 +2618,197 @@
         <v>147</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>148</v>
       </c>
-      <c r="B148" s="1" t="s">
-        <v>190</v>
+      <c r="B148" s="3" t="s">
+        <v>164</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>149</v>
       </c>
-      <c r="B149" s="1" t="s">
-        <v>191</v>
+      <c r="B149" s="3" t="s">
+        <v>165</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>150</v>
       </c>
-      <c r="B150" s="1" t="s">
-        <v>192</v>
+      <c r="B150" s="3" t="s">
+        <v>166</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>151</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>193</v>
+      <c r="B151" s="3" t="s">
+        <v>167</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>152</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>194</v>
+      <c r="B152" s="3" t="s">
+        <v>168</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>153</v>
       </c>
-      <c r="B153" s="1" t="s">
-        <v>195</v>
+      <c r="B153" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>154</v>
       </c>
-      <c r="B154" s="1" t="s">
-        <v>196</v>
+      <c r="B154" s="3" t="s">
+        <v>170</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>155</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>197</v>
+      <c r="B155" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>156</v>
       </c>
-      <c r="B156" s="1" t="s">
-        <v>198</v>
+      <c r="B156" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>157</v>
       </c>
-      <c r="B157" s="1" t="s">
-        <v>198</v>
+      <c r="B157" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>158</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>199</v>
+      <c r="B158" s="3" t="s">
+        <v>173</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>159</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>200</v>
+      <c r="B159" s="3" t="s">
+        <v>174</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>160</v>
       </c>
-      <c r="B160" s="1" t="s">
-        <v>201</v>
+      <c r="B160" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>161</v>
       </c>
-      <c r="B161" s="1" t="s">
-        <v>202</v>
+      <c r="B161" s="3" t="s">
+        <v>176</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>162</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>203</v>
+      <c r="B162" s="3" t="s">
+        <v>177</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>163</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>204</v>
+      <c r="B163" s="3" t="s">
+        <v>178</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>164</v>
       </c>
-      <c r="B164" s="1" t="s">
-        <v>205</v>
+      <c r="B164" s="3" t="s">
+        <v>179</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>206</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2899,13 +2852,13 @@
         <v>81</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>217</v>
+        <v>181</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2913,25 +2866,25 @@
         <v>82</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>83</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>218</v>
+        <v>181</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2939,25 +2892,25 @@
         <v>84</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>85</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>219</v>
+        <v>181</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2965,25 +2918,25 @@
         <v>86</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>87</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>220</v>
+        <v>181</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2991,25 +2944,25 @@
         <v>88</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D10" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>89</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>221</v>
+        <v>181</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -3017,25 +2970,25 @@
         <v>90</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D12" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>91</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>222</v>
+        <v>181</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -3043,25 +2996,25 @@
         <v>92</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D14" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="D14" s="6"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>93</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>223</v>
+        <v>181</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -3069,25 +3022,25 @@
         <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>95</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>224</v>
+        <v>181</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -3095,25 +3048,25 @@
         <v>96</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="D18" s="6"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>97</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>225</v>
+        <v>181</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -3121,28 +3074,28 @@
         <v>98</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>99</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>213</v>
+        <v>187</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>214</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -3150,13 +3103,13 @@
         <v>100</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>226</v>
+        <v>181</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -3164,25 +3117,25 @@
         <v>101</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D23" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="D23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>209</v>
+        <v>183</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>227</v>
+        <v>181</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -3190,25 +3143,25 @@
         <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>210</v>
+        <v>184</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D25" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="D25" s="6"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>228</v>
+        <v>181</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -3216,25 +3169,25 @@
         <v>105</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>212</v>
+        <v>186</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D27" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="D27" s="6"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>106</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -3242,13 +3195,13 @@
         <v>107</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>229</v>
+        <v>181</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -3256,25 +3209,25 @@
         <v>108</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D30" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="D30" s="6"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>109</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>230</v>
+        <v>181</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3282,25 +3235,25 @@
         <v>110</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D32" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>111</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>208</v>
+        <v>182</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3308,13 +3261,13 @@
         <v>112</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>231</v>
+        <v>181</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3322,25 +3275,25 @@
         <v>113</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D35" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="D35" s="6"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>114</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>232</v>
+        <v>181</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3348,25 +3301,25 @@
         <v>115</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D37" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="D37" s="6"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>116</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D38" s="6" t="s">
         <v>207</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3374,25 +3327,25 @@
         <v>117</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D39" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="D39" s="6"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>118</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>234</v>
+        <v>181</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3400,25 +3353,25 @@
         <v>119</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D41" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="D41" s="6"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>120</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>207</v>
+        <v>181</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3426,13 +3379,13 @@
         <v>121</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>235</v>
+        <v>181</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3440,12 +3393,12 @@
         <v>122</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D44" s="7"/>
+        <v>181</v>
+      </c>
+      <c r="D44" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="19">
@@ -3506,7 +3459,7 @@
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>48</v>
       </c>
     </row>
@@ -3517,7 +3470,7 @@
       <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
@@ -3526,7 +3479,7 @@
       <c r="B5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3537,7 +3490,7 @@
       <c r="B6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
@@ -3546,7 +3499,7 @@
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>50</v>
       </c>
     </row>
@@ -3557,7 +3510,7 @@
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -3566,7 +3519,7 @@
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3577,7 +3530,7 @@
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="7"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
@@ -3586,7 +3539,7 @@
       <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3597,7 +3550,7 @@
       <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="7"/>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
@@ -3606,7 +3559,7 @@
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>53</v>
       </c>
     </row>
@@ -3617,7 +3570,7 @@
       <c r="B14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="7"/>
+      <c r="C14" s="6"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -3626,7 +3579,7 @@
       <c r="B15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3637,7 +3590,7 @@
       <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="7"/>
+      <c r="C16" s="6"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
@@ -3646,7 +3599,7 @@
       <c r="B17" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3657,7 +3610,7 @@
       <c r="B18" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="7"/>
+      <c r="C18" s="6"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
@@ -3666,7 +3619,7 @@
       <c r="B19" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3677,7 +3630,7 @@
       <c r="B20" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="7"/>
+      <c r="C20" s="6"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
@@ -3686,7 +3639,7 @@
       <c r="B21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3697,7 +3650,7 @@
       <c r="B22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="7"/>
+      <c r="C22" s="6"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
@@ -3706,7 +3659,7 @@
       <c r="B23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3717,7 +3670,7 @@
       <c r="B24" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="7"/>
+      <c r="C24" s="6"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
@@ -3726,7 +3679,7 @@
       <c r="B25" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="6" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3737,7 +3690,7 @@
       <c r="B26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="7"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
@@ -3746,7 +3699,7 @@
       <c r="B27" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3757,7 +3710,7 @@
       <c r="B28" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C28" s="7"/>
+      <c r="C28" s="6"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
@@ -3766,7 +3719,7 @@
       <c r="B29" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="6" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3777,7 +3730,7 @@
       <c r="B30" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="7"/>
+      <c r="C30" s="6"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
@@ -3786,7 +3739,7 @@
       <c r="B31" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="6" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3797,7 +3750,7 @@
       <c r="B32" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="7"/>
+      <c r="C32" s="6"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
@@ -3806,7 +3759,7 @@
       <c r="B33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3817,7 +3770,7 @@
       <c r="B34" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C34" s="7"/>
+      <c r="C34" s="6"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
@@ -3826,7 +3779,7 @@
       <c r="B35" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="6" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3837,7 +3790,7 @@
       <c r="B36" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="7"/>
+      <c r="C36" s="6"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
@@ -3846,7 +3799,7 @@
       <c r="B37" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="6" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3857,7 +3810,7 @@
       <c r="B38" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="7"/>
+      <c r="C38" s="6"/>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -3866,7 +3819,7 @@
       <c r="B39" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="6" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3877,7 +3830,7 @@
       <c r="B40" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="7"/>
+      <c r="C40" s="6"/>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
@@ -3886,7 +3839,7 @@
       <c r="B41" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="6" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3897,7 +3850,7 @@
       <c r="B42" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C42" s="7"/>
+      <c r="C42" s="6"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
@@ -3906,7 +3859,7 @@
       <c r="B43" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="6" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3917,7 +3870,7 @@
       <c r="B44" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="7"/>
+      <c r="C44" s="6"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
@@ -3926,7 +3879,7 @@
       <c r="B45" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="6" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3937,7 +3890,7 @@
       <c r="B46" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C46" s="7"/>
+      <c r="C46" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -3971,10 +3924,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8918E76E-06FD-498B-851D-1FC52013C21B}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3982,11 +3935,11 @@
     <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.42578125" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>45</v>
       </c>
@@ -4000,7 +3953,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>51</v>
       </c>
@@ -4010,14 +3963,11 @@
       <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>52</v>
       </c>
@@ -4027,14 +3977,11 @@
       <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>53</v>
       </c>
@@ -4044,14 +3991,11 @@
       <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>54</v>
       </c>
@@ -4061,14 +4005,11 @@
       <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="E6" s="1">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>55</v>
       </c>
@@ -4078,14 +4019,11 @@
       <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>56</v>
       </c>
@@ -4095,14 +4033,11 @@
       <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>57</v>
       </c>
@@ -4112,14 +4047,11 @@
       <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E9" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>58</v>
       </c>
@@ -4129,14 +4061,11 @@
       <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>59</v>
       </c>
@@ -4146,14 +4075,11 @@
       <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>60</v>
       </c>
@@ -4163,14 +4089,11 @@
       <c r="C12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>61</v>
       </c>
@@ -4180,14 +4103,11 @@
       <c r="C13" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D13" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>62</v>
       </c>
@@ -4197,14 +4117,11 @@
       <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>63</v>
       </c>
@@ -4214,14 +4131,11 @@
       <c r="C15" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D15" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>64</v>
       </c>
@@ -4231,14 +4145,11 @@
       <c r="C16" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="E16" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D16" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>65</v>
       </c>
@@ -4248,14 +4159,11 @@
       <c r="C17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>66</v>
       </c>
@@ -4265,14 +4173,11 @@
       <c r="C18" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E18" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>67</v>
       </c>
@@ -4282,14 +4187,11 @@
       <c r="C19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>68</v>
       </c>
@@ -4299,14 +4201,11 @@
       <c r="C20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E20" s="1">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>69</v>
       </c>
@@ -4316,14 +4215,11 @@
       <c r="C21" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D21" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="1">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>70</v>
       </c>
@@ -4333,14 +4229,11 @@
       <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>71</v>
       </c>
@@ -4350,14 +4243,11 @@
       <c r="C23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="E23" s="1">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>72</v>
       </c>
@@ -4367,14 +4257,11 @@
       <c r="C24" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D24" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="E24" s="1">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>73</v>
       </c>
@@ -4384,14 +4271,11 @@
       <c r="C25" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D25" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="E25" s="1">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>74</v>
       </c>
@@ -4401,14 +4285,11 @@
       <c r="C26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>75</v>
       </c>
@@ -4418,14 +4299,11 @@
       <c r="C27" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E27" s="1">
-        <v>15.16</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>76</v>
       </c>
@@ -4435,15 +4313,284 @@
       <c r="C28" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="1">
-        <v>27</v>
+      <c r="D28" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCA0939-39CE-4E36-961E-0C21D6AF2694}">
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>148</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>149</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>150</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>151</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>152</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>153</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>154</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>155</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>156</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>157</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>158</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>159</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>160</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>161</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>162</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>163</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>164</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Biskupice/dok/CI-KNX/CI-KNX_2.xlsx
+++ b/Biskupice/dok/CI-KNX/CI-KNX_2.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub\strycht\Crestron\trunk\Biskupice\dok\CI-KNX\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF646DD-B955-4E89-96B3-A8BBF93F89E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AB792B-9F12-4699-A7DF-DC36A6FA8726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All" sheetId="1" r:id="rId1"/>
-    <sheet name="Temperatures" sheetId="5" r:id="rId2"/>
-    <sheet name="Shades" sheetId="2" r:id="rId3"/>
-    <sheet name="Lighting-All" sheetId="4" r:id="rId4"/>
-    <sheet name="Scenes" sheetId="6" r:id="rId5"/>
+    <sheet name="Shades" sheetId="2" r:id="rId2"/>
+    <sheet name="Lighting-All OnOff" sheetId="4" r:id="rId3"/>
+    <sheet name="AC Temperatures" sheetId="5" r:id="rId4"/>
+    <sheet name="AC Mode" sheetId="7" r:id="rId5"/>
+    <sheet name="Scenes" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="234">
   <si>
     <t>Basen_Roleta_1_move</t>
   </si>
@@ -725,6 +726,12 @@
   </si>
   <si>
     <t>Korytarz_Pietro_Scena_in</t>
+  </si>
+  <si>
+    <t>Korytarz_Pietro_TrybGrzewczy</t>
+  </si>
+  <si>
+    <t>Korytarz_Parter_TrybGrzewczy</t>
   </si>
 </sst>
 </file>
@@ -784,7 +791,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -800,6 +807,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1084,8 +1094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="G146" sqref="G146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G126" sqref="G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2353,7 +2363,7 @@
       <c r="A123" s="1">
         <v>123</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="3" t="s">
         <v>139</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -2364,7 +2374,7 @@
       <c r="A124" s="1">
         <v>124</v>
       </c>
-      <c r="B124" s="1" t="s">
+      <c r="B124" s="3" t="s">
         <v>140</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -2375,7 +2385,7 @@
       <c r="A125" s="1">
         <v>125</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B125" s="3" t="s">
         <v>141</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -2386,7 +2396,7 @@
       <c r="A126" s="1">
         <v>126</v>
       </c>
-      <c r="B126" s="1" t="s">
+      <c r="B126" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -2397,7 +2407,7 @@
       <c r="A127" s="1">
         <v>127</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="B127" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -2408,7 +2418,7 @@
       <c r="A128" s="1">
         <v>128</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="B128" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -2419,7 +2429,7 @@
       <c r="A129" s="1">
         <v>129</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B129" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -2430,7 +2440,7 @@
       <c r="A130" s="1">
         <v>130</v>
       </c>
-      <c r="B130" s="1" t="s">
+      <c r="B130" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -2441,7 +2451,7 @@
       <c r="A131" s="1">
         <v>131</v>
       </c>
-      <c r="B131" s="1" t="s">
+      <c r="B131" s="3" t="s">
         <v>147</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -2452,7 +2462,7 @@
       <c r="A132" s="1">
         <v>132</v>
       </c>
-      <c r="B132" s="1" t="s">
+      <c r="B132" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -2463,7 +2473,7 @@
       <c r="A133" s="1">
         <v>133</v>
       </c>
-      <c r="B133" s="1" t="s">
+      <c r="B133" s="3" t="s">
         <v>149</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -2474,7 +2484,7 @@
       <c r="A134" s="1">
         <v>134</v>
       </c>
-      <c r="B134" s="1" t="s">
+      <c r="B134" s="3" t="s">
         <v>150</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -2485,7 +2495,7 @@
       <c r="A135" s="1">
         <v>135</v>
       </c>
-      <c r="B135" s="1" t="s">
+      <c r="B135" s="3" t="s">
         <v>151</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -2496,7 +2506,7 @@
       <c r="A136" s="1">
         <v>136</v>
       </c>
-      <c r="B136" s="1" t="s">
+      <c r="B136" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -2507,7 +2517,7 @@
       <c r="A137" s="1">
         <v>137</v>
       </c>
-      <c r="B137" s="1" t="s">
+      <c r="B137" s="3" t="s">
         <v>153</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -2518,7 +2528,7 @@
       <c r="A138" s="1">
         <v>138</v>
       </c>
-      <c r="B138" s="1" t="s">
+      <c r="B138" s="3" t="s">
         <v>154</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -2529,7 +2539,7 @@
       <c r="A139" s="1">
         <v>139</v>
       </c>
-      <c r="B139" s="1" t="s">
+      <c r="B139" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -2540,7 +2550,7 @@
       <c r="A140" s="1">
         <v>140</v>
       </c>
-      <c r="B140" s="1" t="s">
+      <c r="B140" s="3" t="s">
         <v>156</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -2551,7 +2561,7 @@
       <c r="A141" s="1">
         <v>141</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="B141" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -2562,7 +2572,7 @@
       <c r="A142" s="1">
         <v>142</v>
       </c>
-      <c r="B142" s="1" t="s">
+      <c r="B142" s="3" t="s">
         <v>158</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -2573,7 +2583,7 @@
       <c r="A143" s="1">
         <v>143</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="B143" s="3" t="s">
         <v>159</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -2584,7 +2594,7 @@
       <c r="A144" s="1">
         <v>144</v>
       </c>
-      <c r="B144" s="1" t="s">
+      <c r="B144" s="3" t="s">
         <v>160</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -2595,7 +2605,7 @@
       <c r="A145" s="1">
         <v>145</v>
       </c>
-      <c r="B145" s="1" t="s">
+      <c r="B145" s="3" t="s">
         <v>161</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -2606,7 +2616,7 @@
       <c r="A146" s="1">
         <v>146</v>
       </c>
-      <c r="B146" s="1" t="s">
+      <c r="B146" s="3" t="s">
         <v>162</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -2617,7 +2627,7 @@
       <c r="A147" s="1">
         <v>147</v>
       </c>
-      <c r="B147" s="1" t="s">
+      <c r="B147" s="3" t="s">
         <v>163</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -2818,6 +2828,902 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38BD0F8-D775-4633-8D9A-7E6DA0083472}">
+  <dimension ref="A1:C46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="32" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="6"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="6"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="6"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="6"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="6"/>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="6"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="6"/>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="6"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="C23:C24"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8918E76E-06FD-498B-851D-1FC52013C21B}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>54</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>55</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>56</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>57</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>58</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>59</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>60</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>61</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>62</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>63</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>64</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>65</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>66</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>67</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>68</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>69</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>70</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>71</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>72</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>73</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>74</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>75</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>76</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>229</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D995DE9E-4D63-485D-8DF3-F4DD03E2AD3B}">
   <dimension ref="A1:E44"/>
   <sheetViews>
@@ -3402,6 +4308,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
     <mergeCell ref="D26:D27"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="D3:D4"/>
@@ -3414,529 +4327,24 @@
     <mergeCell ref="D19:D20"/>
     <mergeCell ref="D22:D23"/>
     <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A38BD0F8-D775-4633-8D9A-7E6DA0083472}">
-  <dimension ref="A1:C46"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="32" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="6"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="6"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="6"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>26</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>27</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>35</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C46" s="6"/>
-    </row>
-  </sheetData>
-  <mergeCells count="22">
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C37:C38"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8918E76E-06FD-498B-851D-1FC52013C21B}">
-  <dimension ref="A1:D28"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F235B10F-DD7C-4D7F-858D-E8E78DB719CB}">
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D6"/>
+      <selection activeCell="D6" sqref="D6:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="24.42578125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -3955,380 +4363,358 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>51</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>70</v>
+        <v>123</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>139</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>191</v>
+      <c r="D3" s="7" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>52</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>71</v>
+        <v>124</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>140</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>213</v>
-      </c>
+      <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>53</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>72</v>
+        <v>125</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>141</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>214</v>
-      </c>
+      <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>54</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>73</v>
+        <v>126</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>194</v>
+      <c r="D6" s="7" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>55</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>74</v>
+        <v>127</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>143</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>215</v>
-      </c>
+      <c r="D7" s="7"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>56</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>75</v>
+        <v>128</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>144</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>216</v>
-      </c>
+      <c r="D8" s="7"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>57</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>76</v>
+        <v>129</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="7" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>58</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>77</v>
+        <v>130</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>146</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>217</v>
-      </c>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>59</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>78</v>
+        <v>131</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>147</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>218</v>
-      </c>
+      <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>60</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>79</v>
+        <v>132</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>61</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>80</v>
+        <v>133</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>149</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>62</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>134</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>150</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>63</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>82</v>
+        <v>135</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>64</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>83</v>
+        <v>136</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>65</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>84</v>
+        <v>137</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>153</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>66</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>85</v>
+        <v>138</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>67</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>86</v>
+        <v>139</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>68</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>87</v>
+        <v>140</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>69</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>88</v>
+        <v>141</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>157</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>70</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>89</v>
+        <v>142</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>71</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>90</v>
+        <v>143</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>159</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>72</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>91</v>
+        <v>144</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>233</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>73</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>92</v>
+        <v>145</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>161</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>74</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>93</v>
+        <v>146</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>75</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>94</v>
+        <v>147</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>163</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>76</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <mergeCells count="3">
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="D9:D11"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DCA0939-39CE-4E36-961E-0C21D6AF2694}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
